--- a/sputnik/personal/ee/327ee.xlsx
+++ b/sputnik/personal/ee/327ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -552,10 +552,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1293,26 +1293,128 @@
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="2" t="s">
+      <c r="A30" s="6">
+        <v>43955</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>25096</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:D31" si="11">C30-C28</f>
+        <v>538</v>
+      </c>
+      <c r="E30" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" ref="F30:F31" si="12">D30*E30</f>
+        <v>2415.62</v>
+      </c>
+      <c r="G30" s="18">
+        <f>SUM(F30,F31)</f>
+        <v>3047.42</v>
+      </c>
+      <c r="H30" s="18">
+        <v>3047.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>11624</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="11"/>
+        <v>260</v>
+      </c>
+      <c r="E31" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="12"/>
+        <v>631.80000000000007</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>43980</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>25456</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:D33" si="13">C32-C30</f>
+        <v>360</v>
+      </c>
+      <c r="E32" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" ref="F32:F33" si="14">D32*E32</f>
+        <v>1616.4</v>
+      </c>
+      <c r="G32" s="18">
+        <f>SUM(F32,F33)</f>
+        <v>1939.5900000000001</v>
+      </c>
+      <c r="H32" s="18">
+        <v>1939.59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>11757</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="13"/>
+        <v>133</v>
+      </c>
+      <c r="E33" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="14"/>
+        <v>323.19</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="18">
-        <f>SUM(G2:G29)</f>
-        <v>33717.96</v>
-      </c>
-      <c r="H30" s="18">
-        <f>SUM(H2:H29)</f>
-        <v>33716.969999999994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="2" t="s">
+      <c r="G34" s="18">
+        <f>SUM(G2:G33)</f>
+        <v>38704.97</v>
+      </c>
+      <c r="H34" s="18">
+        <f>SUM(H2:H33)</f>
+        <v>38703.979999999989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18">
-        <f>SUM(H30,-G30)</f>
-        <v>-0.99000000000523869</v>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18">
+        <f>SUM(H34,-G34)</f>
+        <v>-0.99000000001251465</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/327ee.xlsx
+++ b/sputnik/personal/ee/327ee.xlsx
@@ -2,34 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10755"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+  <si>
+    <t>Т1</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тариф </t>
+  </si>
   <si>
     <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>День/ ночь</t>
   </si>
   <si>
     <t>Показания на день оплаты</t>
@@ -38,7 +36,7 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t xml:space="preserve">Тариф </t>
+    <t>День/ ночь</t>
   </si>
   <si>
     <t>Начислено по представленым показаниям и действующему тарифу</t>
@@ -50,17 +48,20 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>T1</t>
+    <t>итого за период</t>
   </si>
   <si>
-    <t>T2</t>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +84,21 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -115,33 +131,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -164,44 +273,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -231,12 +340,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -275,409 +384,1121 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="8" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
+        <v>43509</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>18420</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>8870</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>43534</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>18851</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>431</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>1969.67</v>
+      </c>
+      <c r="G4" s="19">
+        <f>SUM(F4,F5)</f>
+        <v>2321</v>
+      </c>
+      <c r="H4" s="19">
+        <v>2320.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>9017</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="1"/>
+        <v>351.33000000000004</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43571</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>19319</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D11" si="2">C6-C4</f>
+        <v>468</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="1"/>
+        <v>2138.7600000000002</v>
+      </c>
+      <c r="G6" s="18">
+        <f>SUM(F6,F7)</f>
+        <v>2499.65</v>
+      </c>
+      <c r="H6" s="18">
+        <v>2499.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>9168</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="1"/>
+        <v>360.89000000000004</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>43607</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>19578</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>259</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4.57</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="1"/>
+        <v>1183.6300000000001</v>
+      </c>
+      <c r="G8" s="18">
+        <f>SUM(F8,F9)</f>
+        <v>1384.39</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1384.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9252</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="1"/>
+        <v>200.76000000000002</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>43642</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>19886</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.57</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" ref="F10:F15" si="3">D10*E10</f>
+        <v>1407.5600000000002</v>
+      </c>
+      <c r="G10" s="18">
+        <f>SUM(F10,F11)</f>
+        <v>1651.3400000000001</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1651.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9354</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="3"/>
+        <v>243.78</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>43665</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>20132</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D19" si="4">C12-C10</f>
+        <v>246</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="3"/>
+        <v>1104.54</v>
+      </c>
+      <c r="G12" s="19">
+        <f>SUM(F12,F13)</f>
+        <v>1306.23</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1306.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>9437</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="3"/>
+        <v>201.69000000000003</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>43700</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>20415</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="3"/>
+        <v>1270.67</v>
+      </c>
+      <c r="G14" s="18">
+        <f>SUM(F14,F15)</f>
+        <v>1494.23</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1494.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9529</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="3"/>
+        <v>223.56</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>43749</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>20681</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" ref="F16:F21" si="5">D16*E16</f>
+        <v>1194.3400000000001</v>
+      </c>
+      <c r="G16" s="18">
+        <f>SUM(F16,F17)</f>
+        <v>1437.3400000000001</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1437.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9629</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="5"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>43761</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>21060</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="4"/>
+        <v>379</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="5"/>
+        <v>1701.71</v>
+      </c>
+      <c r="G18" s="18">
+        <f>SUM(F18,F19)</f>
+        <v>2034.6200000000001</v>
+      </c>
+      <c r="H18" s="18">
+        <v>2034.62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9766</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="5"/>
+        <v>332.91</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>43789</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>21485</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D25" si="6">C20-C18</f>
+        <v>425</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="5"/>
+        <v>1908.25</v>
+      </c>
+      <c r="G20" s="18">
+        <f>SUM(F20,F21)</f>
+        <v>2360.23</v>
+      </c>
+      <c r="H20" s="18">
+        <v>2360.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9952</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="5"/>
+        <v>451.98</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>43822</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>22472</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="6"/>
+        <v>987</v>
+      </c>
+      <c r="E22" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" ref="F22:F27" si="7">D22*E22</f>
+        <v>4431.63</v>
+      </c>
+      <c r="G22" s="19">
+        <f>SUM(F22,F23)</f>
+        <v>5573.7300000000005</v>
+      </c>
+      <c r="H22" s="19">
+        <v>5573.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10422</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="6"/>
+        <v>470</v>
+      </c>
+      <c r="E23" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="7"/>
+        <v>1142.1000000000001</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>43858</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>23235</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="6"/>
+        <v>763</v>
+      </c>
+      <c r="E24" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="7"/>
+        <v>3425.8700000000003</v>
+      </c>
+      <c r="G24" s="18">
+        <f>SUM(F24,F25)</f>
+        <v>4242.3500000000004</v>
+      </c>
+      <c r="H24" s="18">
+        <v>4242.3500000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10758</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="6"/>
+        <v>336</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="7"/>
+        <v>816.48</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>43892</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
         <v>23965</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="8">C26-C24</f>
+        <v>730</v>
+      </c>
+      <c r="E26" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="7"/>
+        <v>3277.7000000000003</v>
+      </c>
+      <c r="G26" s="18">
+        <f>SUM(F26,F27)</f>
+        <v>4057.7300000000005</v>
+      </c>
+      <c r="H26" s="18">
+        <v>4057.73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
         <v>11079</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="D27" s="3">
+        <f t="shared" si="8"/>
+        <v>321</v>
+      </c>
+      <c r="E27" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="7"/>
+        <v>780.03000000000009</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>43920</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
         <v>24558</v>
       </c>
-      <c r="D4" s="3">
-        <f>C4-C2</f>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D29" si="9">C28-C26</f>
         <v>593</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E28" s="9">
         <v>4.49</v>
       </c>
-      <c r="F4" s="3">
-        <f>D4*E4</f>
+      <c r="F28" s="15">
+        <f t="shared" ref="F28:F29" si="10">D28*E28</f>
         <v>2662.57</v>
       </c>
-      <c r="G4" s="3">
-        <f>F4</f>
-        <v>2662.57</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G28" s="18">
+        <f>SUM(F28,F29)</f>
+        <v>3355.1200000000003</v>
+      </c>
+      <c r="H28" s="18">
         <v>3355.12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
         <v>11364</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" ref="D5:D9" si="0">C5-C3</f>
+      <c r="D29" s="3">
+        <f t="shared" si="9"/>
         <v>285</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E29" s="14">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="3">
-        <f t="shared" ref="F5:F9" si="1">D5*E5</f>
+      <c r="F29" s="15">
+        <f t="shared" si="10"/>
         <v>692.55000000000007</v>
       </c>
-      <c r="G5" s="3">
-        <f t="shared" ref="G5:G9" si="2">F5</f>
-        <v>692.55000000000007</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>43955</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
         <v>25096</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:D31" si="11">C30-C28</f>
         <v>538</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E30" s="9">
         <v>4.49</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" si="1"/>
+      <c r="F30" s="15">
+        <f t="shared" ref="F30:F31" si="12">D30*E30</f>
         <v>2415.62</v>
       </c>
-      <c r="G6" s="3">
-        <f t="shared" si="2"/>
-        <v>2415.62</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G30" s="18">
+        <f>SUM(F30,F31)</f>
         <v>3047.42</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="H30" s="18">
+        <v>3047.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
         <v>11624</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
+      <c r="D31" s="3">
+        <f t="shared" si="11"/>
         <v>260</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E31" s="14">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" si="1"/>
+      <c r="F31" s="15">
+        <f t="shared" si="12"/>
         <v>631.80000000000007</v>
       </c>
-      <c r="G7" s="3">
-        <f t="shared" si="2"/>
-        <v>631.80000000000007</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>43980</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
         <v>25456</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:D33" si="13">C32-C30</f>
         <v>360</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E32" s="9">
         <v>4.49</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="1"/>
+      <c r="F32" s="15">
+        <f t="shared" ref="F32:F33" si="14">D32*E32</f>
         <v>1616.4</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" si="2"/>
-        <v>1616.4</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G32" s="18">
+        <f>SUM(F32,F33)</f>
+        <v>1939.5900000000001</v>
+      </c>
+      <c r="H32" s="18">
         <v>1939.59</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
         <v>11757</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
+      <c r="D33" s="3">
+        <f t="shared" si="13"/>
         <v>133</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E33" s="14">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" si="1"/>
+      <c r="F33" s="15">
+        <f t="shared" si="14"/>
         <v>323.19</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="2"/>
-        <v>323.19</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>44014</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>25746</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" ref="D34:D35" si="15">C34-C32</f>
+        <v>290</v>
+      </c>
+      <c r="E34" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" ref="F34:F35" si="16">D34*E34</f>
+        <v>1302.1000000000001</v>
+      </c>
+      <c r="G34" s="18">
+        <f>SUM(F34,F35)</f>
+        <v>1618.0000000000002</v>
+      </c>
+      <c r="H34" s="18">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>11887</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="15"/>
+        <v>130</v>
+      </c>
+      <c r="E35" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="16"/>
+        <v>315.90000000000003</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="18">
+        <f>SUM(G2:G33)</f>
+        <v>38704.97</v>
+      </c>
+      <c r="H36" s="18">
+        <f>SUM(H2:H33)</f>
+        <v>38703.979999999989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18">
+        <f>SUM(H36,-G36)</f>
+        <v>-0.99000000001251465</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sputnik/personal/ee/327ee.xlsx
+++ b/sputnik/personal/ee/327ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -552,10 +552,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1361,7 @@
         <v>4.49</v>
       </c>
       <c r="F32" s="15">
-        <f t="shared" ref="F32:F33" si="14">D32*E32</f>
+        <f t="shared" ref="F32:F35" si="14">D32*E32</f>
         <v>1616.4</v>
       </c>
       <c r="G32" s="18">
@@ -1405,14 +1405,14 @@
         <v>25746</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" ref="D34:D35" si="15">C34-C32</f>
+        <f>C34-C32</f>
         <v>290</v>
       </c>
       <c r="E34" s="9">
         <v>4.49</v>
       </c>
       <c r="F34" s="15">
-        <f t="shared" ref="F34:F35" si="16">D34*E34</f>
+        <f t="shared" si="14"/>
         <v>1302.1000000000001</v>
       </c>
       <c r="G34" s="18">
@@ -1432,39 +1432,90 @@
         <v>11887</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="15"/>
+        <f>C35-C33</f>
         <v>130</v>
       </c>
       <c r="E35" s="14">
         <v>2.4300000000000002</v>
       </c>
       <c r="F35" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>315.90000000000003</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="2" t="s">
+      <c r="A36" s="6">
+        <v>44047</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>25959</v>
+      </c>
+      <c r="D36" s="3">
+        <f>C36-C34</f>
+        <v>213</v>
+      </c>
+      <c r="E36" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" ref="F36:F37" si="15">D36*E36</f>
+        <v>956.37</v>
+      </c>
+      <c r="G36" s="18">
+        <f>SUM(F36,F37)</f>
+        <v>1162.92</v>
+      </c>
+      <c r="H36" s="18">
+        <v>1162.92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>11972</v>
+      </c>
+      <c r="D37" s="3">
+        <f>C37-C35</f>
+        <v>85</v>
+      </c>
+      <c r="E37" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="15"/>
+        <v>206.55</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G38" s="18">
         <f>SUM(G2:G33)</f>
         <v>38704.97</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H38" s="18">
         <f>SUM(H2:H33)</f>
         <v>38703.979999999989</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F37" s="2" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18">
-        <f>SUM(H36,-G36)</f>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18">
+        <f>SUM(H38,-G38)</f>
         <v>-0.99000000001251465</v>
       </c>
     </row>

--- a/sputnik/personal/ee/327ee.xlsx
+++ b/sputnik/personal/ee/327ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -552,10 +552,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1497,25 +1497,76 @@
       <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F38" s="2" t="s">
+      <c r="A38" s="6">
+        <v>44081</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>26257</v>
+      </c>
+      <c r="D38" s="3">
+        <f>C38-C36</f>
+        <v>298</v>
+      </c>
+      <c r="E38" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" ref="F38:F39" si="16">D38*E38</f>
+        <v>1403.58</v>
+      </c>
+      <c r="G38" s="18">
+        <f>SUM(F38,F39)</f>
+        <v>1663.6799999999998</v>
+      </c>
+      <c r="H38" s="18">
+        <v>1663.68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>12074</v>
+      </c>
+      <c r="D39" s="3">
+        <f>C39-C37</f>
+        <v>102</v>
+      </c>
+      <c r="E39" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="16"/>
+        <v>260.09999999999997</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="18">
-        <f>SUM(G2:G33)</f>
-        <v>38704.97</v>
-      </c>
-      <c r="H38" s="18">
-        <f>SUM(H2:H33)</f>
-        <v>38703.979999999989</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F39" s="2" t="s">
+      <c r="G40" s="18">
+        <f>SUM(G2:G39)</f>
+        <v>43149.57</v>
+      </c>
+      <c r="H40" s="18">
+        <f>SUM(H2:H39)</f>
+        <v>43148.579999999987</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18">
-        <f>SUM(H38,-G38)</f>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18">
+        <f>SUM(H40,-G40)</f>
         <v>-0.99000000001251465</v>
       </c>
     </row>

--- a/sputnik/personal/ee/327ee.xlsx
+++ b/sputnik/personal/ee/327ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -552,10 +552,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1405,7 @@
         <v>25746</v>
       </c>
       <c r="D34" s="3">
-        <f>C34-C32</f>
+        <f t="shared" ref="D34:D41" si="15">C34-C32</f>
         <v>290</v>
       </c>
       <c r="E34" s="9">
@@ -1432,7 +1432,7 @@
         <v>11887</v>
       </c>
       <c r="D35" s="3">
-        <f>C35-C33</f>
+        <f t="shared" si="15"/>
         <v>130</v>
       </c>
       <c r="E35" s="14">
@@ -1456,14 +1456,14 @@
         <v>25959</v>
       </c>
       <c r="D36" s="3">
-        <f>C36-C34</f>
+        <f t="shared" si="15"/>
         <v>213</v>
       </c>
       <c r="E36" s="9">
         <v>4.49</v>
       </c>
       <c r="F36" s="15">
-        <f t="shared" ref="F36:F37" si="15">D36*E36</f>
+        <f t="shared" ref="F36:F37" si="16">D36*E36</f>
         <v>956.37</v>
       </c>
       <c r="G36" s="18">
@@ -1483,14 +1483,14 @@
         <v>11972</v>
       </c>
       <c r="D37" s="3">
-        <f>C37-C35</f>
+        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="E37" s="14">
         <v>2.4300000000000002</v>
       </c>
       <c r="F37" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>206.55</v>
       </c>
       <c r="G37" s="18"/>
@@ -1507,14 +1507,14 @@
         <v>26257</v>
       </c>
       <c r="D38" s="3">
-        <f>C38-C36</f>
+        <f t="shared" si="15"/>
         <v>298</v>
       </c>
       <c r="E38" s="9">
         <v>4.71</v>
       </c>
       <c r="F38" s="15">
-        <f t="shared" ref="F38:F39" si="16">D38*E38</f>
+        <f t="shared" ref="F38:F39" si="17">D38*E38</f>
         <v>1403.58</v>
       </c>
       <c r="G38" s="18">
@@ -1534,39 +1534,90 @@
         <v>12074</v>
       </c>
       <c r="D39" s="3">
-        <f>C39-C37</f>
+        <f t="shared" si="15"/>
         <v>102</v>
       </c>
       <c r="E39" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F39" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>260.09999999999997</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F40" s="2" t="s">
+      <c r="A40" s="6">
+        <v>44113</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>26600</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="15"/>
+        <v>343</v>
+      </c>
+      <c r="E40" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F40" s="15">
+        <f t="shared" ref="F40:F41" si="18">D40*E40</f>
+        <v>1615.53</v>
+      </c>
+      <c r="G40" s="18">
+        <f>SUM(F40,F41)</f>
+        <v>1878.1799999999998</v>
+      </c>
+      <c r="H40" s="18">
+        <v>1878.18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>12177</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="15"/>
+        <v>103</v>
+      </c>
+      <c r="E41" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F41" s="15">
+        <f t="shared" si="18"/>
+        <v>262.64999999999998</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="18">
-        <f>SUM(G2:G39)</f>
-        <v>43149.57</v>
-      </c>
-      <c r="H40" s="18">
-        <f>SUM(H2:H39)</f>
-        <v>43148.579999999987</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F41" s="2" t="s">
+      <c r="G42" s="18">
+        <f>SUM(G2:G41)</f>
+        <v>45027.75</v>
+      </c>
+      <c r="H42" s="18">
+        <f>SUM(H2:H41)</f>
+        <v>45026.759999999987</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18">
-        <f>SUM(H40,-G40)</f>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18">
+        <f>SUM(H42,-G42)</f>
         <v>-0.99000000001251465</v>
       </c>
     </row>

--- a/sputnik/personal/ee/327ee.xlsx
+++ b/sputnik/personal/ee/327ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -552,10 +552,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1599,25 +1599,76 @@
       <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F42" s="2" t="s">
+      <c r="A42" s="6">
+        <v>44144</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>26905</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" ref="D42:D43" si="19">C42-C40</f>
+        <v>305</v>
+      </c>
+      <c r="E42" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" ref="F42:F43" si="20">D42*E42</f>
+        <v>1436.55</v>
+      </c>
+      <c r="G42" s="18">
+        <f>SUM(F42,F43)</f>
+        <v>1737.4499999999998</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1737.45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>12295</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="19"/>
+        <v>118</v>
+      </c>
+      <c r="E43" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="20"/>
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="18">
-        <f>SUM(G2:G41)</f>
-        <v>45027.75</v>
-      </c>
-      <c r="H42" s="18">
-        <f>SUM(H2:H41)</f>
-        <v>45026.759999999987</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="2" t="s">
+      <c r="G44" s="18">
+        <f>SUM(G2:G43)</f>
+        <v>46765.2</v>
+      </c>
+      <c r="H44" s="18">
+        <f>SUM(H2:H43)</f>
+        <v>46764.209999999985</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18">
-        <f>SUM(H42,-G42)</f>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18">
+        <f>SUM(H44,-G44)</f>
         <v>-0.99000000001251465</v>
       </c>
     </row>

--- a/sputnik/personal/ee/327ee.xlsx
+++ b/sputnik/personal/ee/327ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +92,32 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -141,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -165,6 +184,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -472,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -519,84 +541,84 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>44174</v>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>44224</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>27417</v>
+        <v>28431</v>
       </c>
       <c r="D2" s="3">
         <f>C2-C4</f>
-        <v>512</v>
+        <v>1014</v>
       </c>
       <c r="E2" s="7">
         <v>4.71</v>
       </c>
       <c r="F2" s="9">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>2411.52</v>
+        <v>4775.9399999999996</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>2939.37</v>
+        <v>5992.2899999999991</v>
       </c>
       <c r="H2" s="10">
-        <v>2939.37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6002.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>12502</v>
+        <v>12979</v>
       </c>
       <c r="D3" s="3">
         <f>C3-C5</f>
-        <v>207</v>
+        <v>477</v>
       </c>
       <c r="E3" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="0"/>
-        <v>527.84999999999991</v>
+        <v>1216.3499999999999</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>44144</v>
+      <c r="A4" s="12">
+        <v>44174</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>26905</v>
+        <v>27417</v>
       </c>
       <c r="D4" s="3">
         <f>C4-C6</f>
-        <v>305</v>
+        <v>512</v>
       </c>
       <c r="E4" s="7">
         <v>4.71</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F15" si="1">D4*E4</f>
-        <v>1436.55</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>2411.52</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>1737.4499999999998</v>
+        <v>2939.37</v>
       </c>
       <c r="H4" s="10">
-        <v>1737.45</v>
+        <v>2939.37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -605,49 +627,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>12295</v>
+        <v>12502</v>
       </c>
       <c r="D5" s="3">
         <f>C5-C7</f>
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="E5" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>300.89999999999998</v>
+        <v>527.84999999999991</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>26600</v>
+        <v>26905</v>
       </c>
       <c r="D6" s="3">
         <f>C6-C8</f>
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="1"/>
-        <v>1615.53</v>
+        <f t="shared" ref="F6:F17" si="2">D6*E6</f>
+        <v>1436.55</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>1878.1799999999998</v>
+        <v>1737.4499999999998</v>
       </c>
       <c r="H6" s="10">
-        <v>1878.18</v>
+        <v>1737.45</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -656,49 +678,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>12177</v>
+        <v>12295</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ref="D7:D13" si="2">C7-C9</f>
-        <v>103</v>
+        <f>C7-C9</f>
+        <v>118</v>
       </c>
       <c r="E7" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="1"/>
-        <v>262.64999999999998</v>
+        <f t="shared" si="2"/>
+        <v>300.89999999999998</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>44081</v>
+        <v>44113</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>26257</v>
+        <v>26600</v>
       </c>
       <c r="D8" s="3">
         <f>C8-C10</f>
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="1"/>
-        <v>1403.58</v>
+        <f t="shared" si="2"/>
+        <v>1615.53</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>1663.6799999999998</v>
+        <v>1878.1799999999998</v>
       </c>
       <c r="H8" s="10">
-        <v>1663.68</v>
+        <v>1878.18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -707,49 +729,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>12074</v>
+        <v>12177</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C11</f>
-        <v>102</v>
+        <f t="shared" ref="D9:D15" si="3">C9-C11</f>
+        <v>103</v>
       </c>
       <c r="E9" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="1"/>
-        <v>260.09999999999997</v>
+        <f t="shared" si="2"/>
+        <v>262.64999999999998</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>44047</v>
+        <v>44081</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>25959</v>
+        <v>26257</v>
       </c>
       <c r="D10" s="3">
         <f>C10-C12</f>
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="E10" s="7">
         <v>4.71</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
-        <v>1003.23</v>
+        <f t="shared" si="2"/>
+        <v>1403.58</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>1219.98</v>
+        <v>1663.6799999999998</v>
       </c>
       <c r="H10" s="10">
-        <v>1162.92</v>
+        <v>1663.68</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -758,49 +780,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>11972</v>
+        <v>12074</v>
       </c>
       <c r="D11" s="3">
         <f>C11-C13</f>
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E11" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="3"/>
-        <v>216.74999999999997</v>
+        <f t="shared" si="2"/>
+        <v>260.09999999999997</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>44014</v>
+        <v>44047</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>25746</v>
+        <v>25959</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="2"/>
-        <v>290</v>
+        <f>C12-C14</f>
+        <v>213</v>
       </c>
       <c r="E12" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="1"/>
-        <v>1302.1000000000001</v>
-      </c>
-      <c r="G12" s="10">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>1003.23</v>
+      </c>
+      <c r="G12" s="13">
         <f>SUM(F12,F13)</f>
-        <v>1618.0000000000002</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1618</v>
+        <v>1219.98</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1162.92</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -809,49 +831,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>11887</v>
+        <v>11972</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>130</v>
+        <f>C13-C15</f>
+        <v>85</v>
       </c>
       <c r="E13" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="1"/>
-        <v>315.90000000000003</v>
+        <f t="shared" si="4"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43980</v>
+        <v>44014</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>25456</v>
+        <v>25746</v>
       </c>
       <c r="D14" s="3">
-        <f>C14-C16</f>
-        <v>360</v>
+        <f t="shared" si="3"/>
+        <v>290</v>
       </c>
       <c r="E14" s="7">
         <v>4.49</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="1"/>
-        <v>1616.4</v>
+        <f t="shared" si="2"/>
+        <v>1302.1000000000001</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>1939.5900000000001</v>
+        <v>1618.0000000000002</v>
       </c>
       <c r="H14" s="10">
-        <v>1939.59</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -860,37 +882,50 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>11757</v>
+        <v>11887</v>
       </c>
       <c r="D15" s="3">
-        <f>C15-C17</f>
-        <v>133</v>
+        <f t="shared" si="3"/>
+        <v>130</v>
       </c>
       <c r="E15" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="1"/>
-        <v>323.19</v>
+        <f t="shared" si="2"/>
+        <v>315.90000000000003</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43955</v>
+        <v>43980</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>25096</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+        <v>25456</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16-C18</f>
+        <v>360</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="2"/>
+        <v>1616.4</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>1939.5900000000001</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1939.59</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -898,35 +933,73 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>11624</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+        <v>11757</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17-C19</f>
+        <v>133</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="2"/>
+        <v>323.19</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="6">
+        <v>43955</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>25096</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>11624</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="10">
-        <f>SUM(G2:G17)</f>
-        <v>12996.25</v>
-      </c>
-      <c r="H18" s="10">
-        <f>SUM(H2:H17)</f>
-        <v>12939.19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="G20" s="10">
+        <f>SUM(G2:G19)</f>
+        <v>18988.54</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H2:H19)</f>
+        <v>18941.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
-        <v>-57.059999999999491</v>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
+        <v>-46.920000000001892</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/327ee.xlsx
+++ b/sputnik/personal/ee/327ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -494,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,135 +541,135 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44224</v>
+        <v>44250</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>28431</v>
+        <v>30879</v>
       </c>
       <c r="D2" s="3">
-        <f>C2-C4</f>
-        <v>1014</v>
+        <f t="shared" ref="D2:D3" si="0">C2-C4</f>
+        <v>1616</v>
       </c>
       <c r="E2" s="7">
         <v>4.71</v>
       </c>
       <c r="F2" s="9">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>4775.9399999999996</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>7611.36</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>5992.2899999999991</v>
+        <v>9600.3599999999988</v>
       </c>
       <c r="H2" s="10">
-        <v>6002.43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9616.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>12979</v>
+        <v>14181</v>
       </c>
       <c r="D3" s="3">
-        <f>C3-C5</f>
-        <v>477</v>
+        <f t="shared" si="0"/>
+        <v>780</v>
       </c>
       <c r="E3" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" si="0"/>
-        <v>1216.3499999999999</v>
+        <f t="shared" si="1"/>
+        <v>1988.9999999999998</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44174</v>
+        <v>44235</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>27417</v>
+        <v>29263</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C6</f>
-        <v>512</v>
+        <f t="shared" ref="D4:D12" si="2">C4-C6</f>
+        <v>832</v>
       </c>
       <c r="E4" s="7">
         <v>4.71</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>2411.52</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>3918.72</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>2939.37</v>
+        <v>4994.82</v>
       </c>
       <c r="H4" s="10">
-        <v>2939.37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5003.1400000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>12502</v>
+        <v>13401</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C7</f>
-        <v>207</v>
+        <f t="shared" si="2"/>
+        <v>422</v>
       </c>
       <c r="E5" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="1"/>
-        <v>527.84999999999991</v>
+        <f t="shared" si="3"/>
+        <v>1076.0999999999999</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>44144</v>
+      <c r="A6" s="12">
+        <v>44224</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>26905</v>
+        <v>28431</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C8</f>
-        <v>305</v>
+        <f t="shared" si="2"/>
+        <v>1014</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" ref="F6:F17" si="2">D6*E6</f>
-        <v>1436.55</v>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>4775.9399999999996</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>1737.4499999999998</v>
+        <v>5992.2899999999991</v>
       </c>
       <c r="H6" s="10">
-        <v>1737.45</v>
+        <v>6002.43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,49 +678,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>12295</v>
+        <v>12979</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C9</f>
-        <v>118</v>
+        <f t="shared" si="2"/>
+        <v>477</v>
       </c>
       <c r="E7" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="2"/>
-        <v>300.89999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1216.3499999999999</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>44113</v>
+      <c r="A8" s="12">
+        <v>44174</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>26600</v>
+        <v>27417</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C10</f>
-        <v>343</v>
+        <f t="shared" si="2"/>
+        <v>512</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="2"/>
-        <v>1615.53</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>2411.52</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>1878.1799999999998</v>
+        <v>2939.37</v>
       </c>
       <c r="H8" s="10">
-        <v>1878.18</v>
+        <v>2939.37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -729,49 +729,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>12177</v>
+        <v>12502</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ref="D9:D15" si="3">C9-C11</f>
-        <v>103</v>
+        <f t="shared" si="2"/>
+        <v>207</v>
       </c>
       <c r="E9" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="2"/>
-        <v>262.64999999999998</v>
+        <f t="shared" si="5"/>
+        <v>527.84999999999991</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>44081</v>
+        <v>44144</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>26257</v>
+        <v>26905</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C12</f>
-        <v>298</v>
+        <f t="shared" si="2"/>
+        <v>305</v>
       </c>
       <c r="E10" s="7">
         <v>4.71</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="2"/>
-        <v>1403.58</v>
+        <f t="shared" ref="F10:F21" si="6">D10*E10</f>
+        <v>1436.55</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>1663.6799999999998</v>
+        <v>1737.4499999999998</v>
       </c>
       <c r="H10" s="10">
-        <v>1663.68</v>
+        <v>1737.45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -780,49 +780,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>12074</v>
+        <v>12295</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C13</f>
-        <v>102</v>
+        <f t="shared" si="2"/>
+        <v>118</v>
       </c>
       <c r="E11" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="2"/>
-        <v>260.09999999999997</v>
+        <f t="shared" si="6"/>
+        <v>300.89999999999998</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>44047</v>
+        <v>44113</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>25959</v>
+        <v>26600</v>
       </c>
       <c r="D12" s="3">
-        <f>C12-C14</f>
-        <v>213</v>
+        <f t="shared" si="2"/>
+        <v>343</v>
       </c>
       <c r="E12" s="7">
         <v>4.71</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
-        <v>1003.23</v>
-      </c>
-      <c r="G12" s="13">
+        <f t="shared" si="6"/>
+        <v>1615.53</v>
+      </c>
+      <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>1219.98</v>
-      </c>
-      <c r="H12" s="13">
-        <v>1162.92</v>
+        <v>1878.1799999999998</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1878.18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,49 +831,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>11972</v>
+        <v>12177</v>
       </c>
       <c r="D13" s="3">
-        <f>C13-C15</f>
-        <v>85</v>
+        <f t="shared" ref="D13:D19" si="7">C13-C15</f>
+        <v>103</v>
       </c>
       <c r="E13" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="4"/>
-        <v>216.74999999999997</v>
+        <f t="shared" si="6"/>
+        <v>262.64999999999998</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>44014</v>
+        <v>44081</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>25746</v>
+        <v>26257</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="3"/>
-        <v>290</v>
+        <f>C14-C16</f>
+        <v>298</v>
       </c>
       <c r="E14" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="2"/>
-        <v>1302.1000000000001</v>
+        <f t="shared" si="6"/>
+        <v>1403.58</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>1618.0000000000002</v>
+        <v>1663.6799999999998</v>
       </c>
       <c r="H14" s="10">
-        <v>1618</v>
+        <v>1663.68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,49 +882,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>11887</v>
+        <v>12074</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <f>C15-C17</f>
+        <v>102</v>
       </c>
       <c r="E15" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="2"/>
-        <v>315.90000000000003</v>
+        <f t="shared" si="6"/>
+        <v>260.09999999999997</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43980</v>
+        <v>44047</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>25456</v>
+        <v>25959</v>
       </c>
       <c r="D16" s="3">
         <f>C16-C18</f>
-        <v>360</v>
+        <v>213</v>
       </c>
       <c r="E16" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="2"/>
-        <v>1616.4</v>
-      </c>
-      <c r="G16" s="10">
+        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
+        <v>1003.23</v>
+      </c>
+      <c r="G16" s="13">
         <f>SUM(F16,F17)</f>
-        <v>1939.5900000000001</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1939.59</v>
+        <v>1219.98</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1162.92</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,37 +933,50 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>11757</v>
+        <v>11972</v>
       </c>
       <c r="D17" s="3">
         <f>C17-C19</f>
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="E17" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="2"/>
-        <v>323.19</v>
+        <f t="shared" si="8"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43955</v>
+        <v>44014</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>25096</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+        <v>25746</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="7"/>
+        <v>290</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="6"/>
+        <v>1302.1000000000001</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>1618.0000000000002</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1618</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -971,35 +984,124 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>11624</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+        <v>11887</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="6"/>
+        <v>315.90000000000003</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="6">
+        <v>43980</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>25456</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20-C22</f>
+        <v>360</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="6"/>
+        <v>1616.4</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>1939.5900000000001</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1939.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>11757</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21-C23</f>
+        <v>133</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="6"/>
+        <v>323.19</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>43955</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>25096</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>11624</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="10">
-        <f>SUM(G2:G19)</f>
-        <v>18988.54</v>
-      </c>
-      <c r="H20" s="10">
-        <f>SUM(H2:H19)</f>
-        <v>18941.62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="G24" s="10">
+        <f>SUM(G2:G23)</f>
+        <v>33583.72</v>
+      </c>
+      <c r="H24" s="10">
+        <f>SUM(H2:H23)</f>
+        <v>33561.279999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
-        <v>-46.920000000001892</v>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
+        <f>SUM(H24,-G24)</f>
+        <v>-22.440000000002328</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/327ee.xlsx
+++ b/sputnik/personal/ee/327ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -494,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -543,31 +543,31 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44250</v>
+        <v>44335</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>30879</v>
+        <v>31964</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>1616</v>
+        <v>1085</v>
       </c>
       <c r="E2" s="7">
         <v>4.71</v>
       </c>
       <c r="F2" s="9">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>7611.36</v>
+        <v>5110.3500000000004</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>9600.3599999999988</v>
+        <v>6303.75</v>
       </c>
       <c r="H2" s="10">
-        <v>9616.52</v>
+        <v>6303.75</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -576,49 +576,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>14181</v>
+        <v>14649</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>780</v>
+        <v>468</v>
       </c>
       <c r="E3" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="1"/>
-        <v>1988.9999999999998</v>
+        <v>1193.3999999999999</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44235</v>
+        <v>44250</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>29263</v>
+        <v>30879</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D12" si="2">C4-C6</f>
-        <v>832</v>
+        <f t="shared" ref="D4:D5" si="2">C4-C6</f>
+        <v>1616</v>
       </c>
       <c r="E4" s="7">
         <v>4.71</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>3918.72</v>
+        <v>7611.36</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>4994.82</v>
+        <v>9600.3599999999988</v>
       </c>
       <c r="H4" s="10">
-        <v>5003.1400000000003</v>
+        <v>9616.52</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,49 +627,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>13401</v>
+        <v>14181</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>422</v>
+        <v>780</v>
       </c>
       <c r="E5" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="3"/>
-        <v>1076.0999999999999</v>
+        <v>1988.9999999999998</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44224</v>
+        <v>44235</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>28431</v>
+        <v>29263</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="2"/>
-        <v>1014</v>
+        <f t="shared" ref="D6:D14" si="4">C6-C8</f>
+        <v>832</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>4775.9399999999996</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>3918.72</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>5992.2899999999991</v>
+        <v>4994.82</v>
       </c>
       <c r="H6" s="10">
-        <v>6002.43</v>
+        <v>5003.1400000000003</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,49 +678,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>12979</v>
+        <v>13401</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>477</v>
+        <f t="shared" si="4"/>
+        <v>422</v>
       </c>
       <c r="E7" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="4"/>
-        <v>1216.3499999999999</v>
+        <f t="shared" si="5"/>
+        <v>1076.0999999999999</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44174</v>
+        <v>44224</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>27417</v>
+        <v>28431</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="2"/>
-        <v>512</v>
+        <f t="shared" si="4"/>
+        <v>1014</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>2411.52</v>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
+        <v>4775.9399999999996</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>2939.37</v>
+        <v>5992.2899999999991</v>
       </c>
       <c r="H8" s="10">
-        <v>2939.37</v>
+        <v>6002.43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -729,49 +729,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>12502</v>
+        <v>12979</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>207</v>
+        <f t="shared" si="4"/>
+        <v>477</v>
       </c>
       <c r="E9" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="5"/>
-        <v>527.84999999999991</v>
+        <f t="shared" si="6"/>
+        <v>1216.3499999999999</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>44144</v>
+      <c r="A10" s="12">
+        <v>44174</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>26905</v>
+        <v>27417</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="2"/>
-        <v>305</v>
+        <f t="shared" si="4"/>
+        <v>512</v>
       </c>
       <c r="E10" s="7">
         <v>4.71</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" ref="F10:F21" si="6">D10*E10</f>
-        <v>1436.55</v>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>2411.52</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>1737.4499999999998</v>
+        <v>2939.37</v>
       </c>
       <c r="H10" s="10">
-        <v>1737.45</v>
+        <v>2939.37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -780,49 +780,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>12295</v>
+        <v>12502</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>118</v>
+        <f t="shared" si="4"/>
+        <v>207</v>
       </c>
       <c r="E11" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="6"/>
-        <v>300.89999999999998</v>
+        <f t="shared" si="7"/>
+        <v>527.84999999999991</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>26600</v>
+        <v>26905</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="2"/>
-        <v>343</v>
+        <f t="shared" si="4"/>
+        <v>305</v>
       </c>
       <c r="E12" s="7">
         <v>4.71</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="6"/>
-        <v>1615.53</v>
+        <f t="shared" ref="F12:F23" si="8">D12*E12</f>
+        <v>1436.55</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>1878.1799999999998</v>
+        <v>1737.4499999999998</v>
       </c>
       <c r="H12" s="10">
-        <v>1878.18</v>
+        <v>1737.45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,49 +831,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>12177</v>
+        <v>12295</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" ref="D13:D19" si="7">C13-C15</f>
-        <v>103</v>
+        <f t="shared" si="4"/>
+        <v>118</v>
       </c>
       <c r="E13" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="6"/>
-        <v>262.64999999999998</v>
+        <f t="shared" si="8"/>
+        <v>300.89999999999998</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>44081</v>
+        <v>44113</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>26257</v>
+        <v>26600</v>
       </c>
       <c r="D14" s="3">
-        <f>C14-C16</f>
-        <v>298</v>
+        <f t="shared" si="4"/>
+        <v>343</v>
       </c>
       <c r="E14" s="7">
         <v>4.71</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="6"/>
-        <v>1403.58</v>
+        <f t="shared" si="8"/>
+        <v>1615.53</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>1663.6799999999998</v>
+        <v>1878.1799999999998</v>
       </c>
       <c r="H14" s="10">
-        <v>1663.68</v>
+        <v>1878.18</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,49 +882,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>12074</v>
+        <v>12177</v>
       </c>
       <c r="D15" s="3">
-        <f>C15-C17</f>
-        <v>102</v>
+        <f t="shared" ref="D15:D21" si="9">C15-C17</f>
+        <v>103</v>
       </c>
       <c r="E15" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="6"/>
-        <v>260.09999999999997</v>
+        <f t="shared" si="8"/>
+        <v>262.64999999999998</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>44047</v>
+        <v>44081</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>25959</v>
+        <v>26257</v>
       </c>
       <c r="D16" s="3">
         <f>C16-C18</f>
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="E16" s="7">
         <v>4.71</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
-        <v>1003.23</v>
-      </c>
-      <c r="G16" s="13">
+        <f t="shared" si="8"/>
+        <v>1403.58</v>
+      </c>
+      <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>1219.98</v>
-      </c>
-      <c r="H16" s="13">
-        <v>1162.92</v>
+        <v>1663.6799999999998</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1663.68</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,49 +933,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>11972</v>
+        <v>12074</v>
       </c>
       <c r="D17" s="3">
         <f>C17-C19</f>
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E17" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="8"/>
-        <v>216.74999999999997</v>
+        <v>260.09999999999997</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>44014</v>
+        <v>44047</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>25746</v>
+        <v>25959</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="7"/>
-        <v>290</v>
+        <f>C18-C20</f>
+        <v>213</v>
       </c>
       <c r="E18" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="6"/>
-        <v>1302.1000000000001</v>
-      </c>
-      <c r="G18" s="10">
+        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
+        <v>1003.23</v>
+      </c>
+      <c r="G18" s="13">
         <f>SUM(F18,F19)</f>
-        <v>1618.0000000000002</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1618</v>
+        <v>1219.98</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1162.92</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,49 +984,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>11887</v>
+        <v>11972</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="7"/>
-        <v>130</v>
+        <f>C19-C21</f>
+        <v>85</v>
       </c>
       <c r="E19" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="6"/>
-        <v>315.90000000000003</v>
+        <f t="shared" si="10"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43980</v>
+        <v>44014</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>25456</v>
+        <v>25746</v>
       </c>
       <c r="D20" s="3">
-        <f>C20-C22</f>
-        <v>360</v>
+        <f t="shared" si="9"/>
+        <v>290</v>
       </c>
       <c r="E20" s="7">
         <v>4.49</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="6"/>
-        <v>1616.4</v>
+        <f t="shared" si="8"/>
+        <v>1302.1000000000001</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>1939.5900000000001</v>
+        <v>1618.0000000000002</v>
       </c>
       <c r="H20" s="10">
-        <v>1939.59</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,37 +1035,50 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>11757</v>
+        <v>11887</v>
       </c>
       <c r="D21" s="3">
-        <f>C21-C23</f>
-        <v>133</v>
+        <f t="shared" si="9"/>
+        <v>130</v>
       </c>
       <c r="E21" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="6"/>
-        <v>323.19</v>
+        <f t="shared" si="8"/>
+        <v>315.90000000000003</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43955</v>
+        <v>43980</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>25096</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+        <v>25456</v>
+      </c>
+      <c r="D22" s="3">
+        <f>C22-C24</f>
+        <v>360</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="8"/>
+        <v>1616.4</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
+        <v>1939.5900000000001</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1939.59</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -1073,34 +1086,72 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>11624</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+        <v>11757</v>
+      </c>
+      <c r="D23" s="3">
+        <f>C23-C25</f>
+        <v>133</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="8"/>
+        <v>323.19</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="6">
+        <v>43955</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>25096</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>11624</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="10">
-        <f>SUM(G2:G23)</f>
+      <c r="G26" s="10">
+        <f>SUM(G4:G25)</f>
         <v>33583.72</v>
       </c>
-      <c r="H24" s="10">
-        <f>SUM(H2:H23)</f>
+      <c r="H26" s="10">
+        <f>SUM(H4:H25)</f>
         <v>33561.279999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <f>SUM(H26,-G26)</f>
         <v>-22.440000000002328</v>
       </c>
     </row>

--- a/sputnik/personal/ee/327ee.xlsx
+++ b/sputnik/personal/ee/327ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -494,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -543,31 +543,31 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44335</v>
+        <v>44389</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>31964</v>
+        <v>32433</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>1085</v>
+        <v>469</v>
       </c>
       <c r="E2" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="9">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>5110.3500000000004</v>
+        <v>2326.2399999999998</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>6303.75</v>
+        <v>2822.04</v>
       </c>
       <c r="H2" s="10">
-        <v>6303.75</v>
+        <v>2822.04</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -576,49 +576,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>14649</v>
+        <v>14834</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>468</v>
+        <v>185</v>
       </c>
       <c r="E3" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="1"/>
-        <v>1193.3999999999999</v>
+        <v>495.8</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44250</v>
+        <v>44335</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>30879</v>
+        <v>31964</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>1616</v>
+        <v>1085</v>
       </c>
       <c r="E4" s="7">
         <v>4.71</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>7611.36</v>
+        <v>5110.3500000000004</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>9600.3599999999988</v>
+        <v>6303.75</v>
       </c>
       <c r="H4" s="10">
-        <v>9616.52</v>
+        <v>6303.75</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,49 +627,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>14181</v>
+        <v>14649</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>780</v>
+        <v>468</v>
       </c>
       <c r="E5" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="3"/>
-        <v>1988.9999999999998</v>
+        <v>1193.3999999999999</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44235</v>
+        <v>44250</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>29263</v>
+        <v>30879</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D14" si="4">C6-C8</f>
-        <v>832</v>
+        <f t="shared" ref="D6:D7" si="4">C6-C8</f>
+        <v>1616</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>3918.72</v>
+        <v>7611.36</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>4994.82</v>
+        <v>9600.3599999999988</v>
       </c>
       <c r="H6" s="10">
-        <v>5003.1400000000003</v>
+        <v>9616.52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,49 +678,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>13401</v>
+        <v>14181</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>422</v>
+        <v>780</v>
       </c>
       <c r="E7" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="5"/>
-        <v>1076.0999999999999</v>
+        <v>1988.9999999999998</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44224</v>
+        <v>44235</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>28431</v>
+        <v>29263</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="4"/>
-        <v>1014</v>
+        <f t="shared" ref="D8:D16" si="6">C8-C10</f>
+        <v>832</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>4775.9399999999996</v>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>3918.72</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>5992.2899999999991</v>
+        <v>4994.82</v>
       </c>
       <c r="H8" s="10">
-        <v>6002.43</v>
+        <v>5003.1400000000003</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -729,49 +729,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>12979</v>
+        <v>13401</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="4"/>
-        <v>477</v>
+        <f t="shared" si="6"/>
+        <v>422</v>
       </c>
       <c r="E9" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="6"/>
-        <v>1216.3499999999999</v>
+        <f t="shared" si="7"/>
+        <v>1076.0999999999999</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44174</v>
+        <v>44224</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>27417</v>
+        <v>28431</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="4"/>
-        <v>512</v>
+        <f t="shared" si="6"/>
+        <v>1014</v>
       </c>
       <c r="E10" s="7">
         <v>4.71</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>2411.52</v>
+        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
+        <v>4775.9399999999996</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>2939.37</v>
+        <v>5992.2899999999991</v>
       </c>
       <c r="H10" s="10">
-        <v>2939.37</v>
+        <v>6002.43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -780,49 +780,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>12502</v>
+        <v>12979</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
-        <v>207</v>
+        <f t="shared" si="6"/>
+        <v>477</v>
       </c>
       <c r="E11" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="7"/>
-        <v>527.84999999999991</v>
+        <f t="shared" si="8"/>
+        <v>1216.3499999999999</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>44144</v>
+      <c r="A12" s="12">
+        <v>44174</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>26905</v>
+        <v>27417</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="4"/>
-        <v>305</v>
+        <f t="shared" si="6"/>
+        <v>512</v>
       </c>
       <c r="E12" s="7">
         <v>4.71</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" ref="F12:F23" si="8">D12*E12</f>
-        <v>1436.55</v>
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>2411.52</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>1737.4499999999998</v>
+        <v>2939.37</v>
       </c>
       <c r="H12" s="10">
-        <v>1737.45</v>
+        <v>2939.37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,49 +831,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>12295</v>
+        <v>12502</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="4"/>
-        <v>118</v>
+        <f t="shared" si="6"/>
+        <v>207</v>
       </c>
       <c r="E13" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="8"/>
-        <v>300.89999999999998</v>
+        <f t="shared" si="9"/>
+        <v>527.84999999999991</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>26600</v>
+        <v>26905</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="4"/>
-        <v>343</v>
+        <f t="shared" si="6"/>
+        <v>305</v>
       </c>
       <c r="E14" s="7">
         <v>4.71</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="8"/>
-        <v>1615.53</v>
+        <f t="shared" ref="F14:F25" si="10">D14*E14</f>
+        <v>1436.55</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>1878.1799999999998</v>
+        <v>1737.4499999999998</v>
       </c>
       <c r="H14" s="10">
-        <v>1878.18</v>
+        <v>1737.45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,49 +882,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>12177</v>
+        <v>12295</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15:D21" si="9">C15-C17</f>
-        <v>103</v>
+        <f t="shared" si="6"/>
+        <v>118</v>
       </c>
       <c r="E15" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="8"/>
-        <v>262.64999999999998</v>
+        <f t="shared" si="10"/>
+        <v>300.89999999999998</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>44081</v>
+        <v>44113</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>26257</v>
+        <v>26600</v>
       </c>
       <c r="D16" s="3">
-        <f>C16-C18</f>
-        <v>298</v>
+        <f t="shared" si="6"/>
+        <v>343</v>
       </c>
       <c r="E16" s="7">
         <v>4.71</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="8"/>
-        <v>1403.58</v>
+        <f t="shared" si="10"/>
+        <v>1615.53</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>1663.6799999999998</v>
+        <v>1878.1799999999998</v>
       </c>
       <c r="H16" s="10">
-        <v>1663.68</v>
+        <v>1878.18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,49 +933,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>12074</v>
+        <v>12177</v>
       </c>
       <c r="D17" s="3">
-        <f>C17-C19</f>
-        <v>102</v>
+        <f t="shared" ref="D17:D23" si="11">C17-C19</f>
+        <v>103</v>
       </c>
       <c r="E17" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="8"/>
-        <v>260.09999999999997</v>
+        <f t="shared" si="10"/>
+        <v>262.64999999999998</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>44047</v>
+        <v>44081</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>25959</v>
+        <v>26257</v>
       </c>
       <c r="D18" s="3">
         <f>C18-C20</f>
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="E18" s="7">
         <v>4.71</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
-        <v>1003.23</v>
-      </c>
-      <c r="G18" s="13">
+        <f t="shared" si="10"/>
+        <v>1403.58</v>
+      </c>
+      <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>1219.98</v>
-      </c>
-      <c r="H18" s="13">
-        <v>1162.92</v>
+        <v>1663.6799999999998</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1663.68</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,49 +984,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>11972</v>
+        <v>12074</v>
       </c>
       <c r="D19" s="3">
         <f>C19-C21</f>
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E19" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="10"/>
-        <v>216.74999999999997</v>
+        <v>260.09999999999997</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>44014</v>
+        <v>44047</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>25746</v>
+        <v>25959</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="9"/>
-        <v>290</v>
+        <f>C20-C22</f>
+        <v>213</v>
       </c>
       <c r="E20" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="8"/>
-        <v>1302.1000000000001</v>
-      </c>
-      <c r="G20" s="10">
+        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
+        <v>1003.23</v>
+      </c>
+      <c r="G20" s="13">
         <f>SUM(F20,F21)</f>
-        <v>1618.0000000000002</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1618</v>
+        <v>1219.98</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1162.92</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,49 +1035,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>11887</v>
+        <v>11972</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="9"/>
-        <v>130</v>
+        <f>C21-C23</f>
+        <v>85</v>
       </c>
       <c r="E21" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="8"/>
-        <v>315.90000000000003</v>
+        <f t="shared" si="12"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43980</v>
+        <v>44014</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>25456</v>
+        <v>25746</v>
       </c>
       <c r="D22" s="3">
-        <f>C22-C24</f>
-        <v>360</v>
+        <f t="shared" si="11"/>
+        <v>290</v>
       </c>
       <c r="E22" s="7">
         <v>4.49</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="8"/>
-        <v>1616.4</v>
+        <f t="shared" si="10"/>
+        <v>1302.1000000000001</v>
       </c>
       <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>1939.5900000000001</v>
+        <v>1618.0000000000002</v>
       </c>
       <c r="H22" s="10">
-        <v>1939.59</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,37 +1086,50 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>11757</v>
+        <v>11887</v>
       </c>
       <c r="D23" s="3">
-        <f>C23-C25</f>
-        <v>133</v>
+        <f t="shared" si="11"/>
+        <v>130</v>
       </c>
       <c r="E23" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="8"/>
-        <v>323.19</v>
+        <f t="shared" si="10"/>
+        <v>315.90000000000003</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43955</v>
+        <v>43980</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>25096</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+        <v>25456</v>
+      </c>
+      <c r="D24" s="3">
+        <f>C24-C26</f>
+        <v>360</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="10"/>
+        <v>1616.4</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(F24,F25)</f>
+        <v>1939.5900000000001</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1939.59</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -1124,34 +1137,72 @@
         <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>11624</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+        <v>11757</v>
+      </c>
+      <c r="D25" s="3">
+        <f>C25-C27</f>
+        <v>133</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="10"/>
+        <v>323.19</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="6">
+        <v>43955</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>25096</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>11624</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="10">
-        <f>SUM(G4:G25)</f>
+      <c r="G28" s="10">
+        <f>SUM(G6:G27)</f>
         <v>33583.72</v>
       </c>
-      <c r="H26" s="10">
-        <f>SUM(H4:H25)</f>
+      <c r="H28" s="10">
+        <f>SUM(H6:H27)</f>
         <v>33561.279999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <f>SUM(H28,-G28)</f>
         <v>-22.440000000002328</v>
       </c>
     </row>

--- a/sputnik/personal/ee/327ee.xlsx
+++ b/sputnik/personal/ee/327ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -494,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -543,31 +543,31 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44389</v>
+        <v>44431</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>32433</v>
+        <v>32706</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>469</v>
+        <v>273</v>
       </c>
       <c r="E2" s="7">
         <v>4.96</v>
       </c>
       <c r="F2" s="9">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>2326.2399999999998</v>
+        <v>1354.08</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>2822.04</v>
+        <v>1667.6399999999999</v>
       </c>
       <c r="H2" s="10">
-        <v>2822.04</v>
+        <v>1667.64</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -576,49 +576,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>14834</v>
+        <v>14951</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="E3" s="8">
         <v>2.68</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="1"/>
-        <v>495.8</v>
+        <v>313.56</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44335</v>
+        <v>44389</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>31964</v>
+        <v>32433</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>1085</v>
+        <v>469</v>
       </c>
       <c r="E4" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>5110.3500000000004</v>
+        <v>2326.2399999999998</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>6303.75</v>
+        <v>2822.04</v>
       </c>
       <c r="H4" s="10">
-        <v>6303.75</v>
+        <v>2822.04</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,49 +627,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>14649</v>
+        <v>14834</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>468</v>
+        <v>185</v>
       </c>
       <c r="E5" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="3"/>
-        <v>1193.3999999999999</v>
+        <v>495.8</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44250</v>
+        <v>44335</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>30879</v>
+        <v>31964</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="4">C6-C8</f>
-        <v>1616</v>
+        <v>1085</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>7611.36</v>
+        <v>5110.3500000000004</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>9600.3599999999988</v>
+        <v>6303.75</v>
       </c>
       <c r="H6" s="10">
-        <v>9616.52</v>
+        <v>6303.75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,49 +678,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>14181</v>
+        <v>14649</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>780</v>
+        <v>468</v>
       </c>
       <c r="E7" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="5"/>
-        <v>1988.9999999999998</v>
+        <v>1193.3999999999999</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44235</v>
+        <v>44250</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>29263</v>
+        <v>30879</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D16" si="6">C8-C10</f>
-        <v>832</v>
+        <f t="shared" ref="D8:D9" si="6">C8-C10</f>
+        <v>1616</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>3918.72</v>
+        <v>7611.36</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>4994.82</v>
+        <v>9600.3599999999988</v>
       </c>
       <c r="H8" s="10">
-        <v>5003.1400000000003</v>
+        <v>9616.52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -729,49 +729,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>13401</v>
+        <v>14181</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="6"/>
-        <v>422</v>
+        <v>780</v>
       </c>
       <c r="E9" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="7"/>
-        <v>1076.0999999999999</v>
+        <v>1988.9999999999998</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44224</v>
+        <v>44235</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>28431</v>
+        <v>29263</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="6"/>
-        <v>1014</v>
+        <f t="shared" ref="D10:D18" si="8">C10-C12</f>
+        <v>832</v>
       </c>
       <c r="E10" s="7">
         <v>4.71</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>4775.9399999999996</v>
+        <f t="shared" ref="F10:F11" si="9">D10*E10</f>
+        <v>3918.72</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>5992.2899999999991</v>
+        <v>4994.82</v>
       </c>
       <c r="H10" s="10">
-        <v>6002.43</v>
+        <v>5003.1400000000003</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -780,49 +780,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>12979</v>
+        <v>13401</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="6"/>
-        <v>477</v>
+        <f t="shared" si="8"/>
+        <v>422</v>
       </c>
       <c r="E11" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="8"/>
-        <v>1216.3499999999999</v>
+        <f t="shared" si="9"/>
+        <v>1076.0999999999999</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44174</v>
+        <v>44224</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>27417</v>
+        <v>28431</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="6"/>
-        <v>512</v>
+        <f t="shared" si="8"/>
+        <v>1014</v>
       </c>
       <c r="E12" s="7">
         <v>4.71</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
-        <v>2411.52</v>
+        <f t="shared" ref="F12:F13" si="10">D12*E12</f>
+        <v>4775.9399999999996</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>2939.37</v>
+        <v>5992.2899999999991</v>
       </c>
       <c r="H12" s="10">
-        <v>2939.37</v>
+        <v>6002.43</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,49 +831,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>12502</v>
+        <v>12979</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="6"/>
-        <v>207</v>
+        <f t="shared" si="8"/>
+        <v>477</v>
       </c>
       <c r="E13" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="9"/>
-        <v>527.84999999999991</v>
+        <f t="shared" si="10"/>
+        <v>1216.3499999999999</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>44144</v>
+      <c r="A14" s="12">
+        <v>44174</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>26905</v>
+        <v>27417</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="6"/>
-        <v>305</v>
+        <f t="shared" si="8"/>
+        <v>512</v>
       </c>
       <c r="E14" s="7">
         <v>4.71</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" ref="F14:F25" si="10">D14*E14</f>
-        <v>1436.55</v>
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>2411.52</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>1737.4499999999998</v>
+        <v>2939.37</v>
       </c>
       <c r="H14" s="10">
-        <v>1737.45</v>
+        <v>2939.37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,49 +882,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>12295</v>
+        <v>12502</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="6"/>
-        <v>118</v>
+        <f t="shared" si="8"/>
+        <v>207</v>
       </c>
       <c r="E15" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="10"/>
-        <v>300.89999999999998</v>
+        <f t="shared" si="11"/>
+        <v>527.84999999999991</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>26600</v>
+        <v>26905</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="6"/>
-        <v>343</v>
+        <f t="shared" si="8"/>
+        <v>305</v>
       </c>
       <c r="E16" s="7">
         <v>4.71</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="10"/>
-        <v>1615.53</v>
+        <f t="shared" ref="F16:F27" si="12">D16*E16</f>
+        <v>1436.55</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>1878.1799999999998</v>
+        <v>1737.4499999999998</v>
       </c>
       <c r="H16" s="10">
-        <v>1878.18</v>
+        <v>1737.45</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,49 +933,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>12177</v>
+        <v>12295</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ref="D17:D23" si="11">C17-C19</f>
-        <v>103</v>
+        <f t="shared" si="8"/>
+        <v>118</v>
       </c>
       <c r="E17" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="10"/>
-        <v>262.64999999999998</v>
+        <f t="shared" si="12"/>
+        <v>300.89999999999998</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>44081</v>
+        <v>44113</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>26257</v>
+        <v>26600</v>
       </c>
       <c r="D18" s="3">
-        <f>C18-C20</f>
-        <v>298</v>
+        <f t="shared" si="8"/>
+        <v>343</v>
       </c>
       <c r="E18" s="7">
         <v>4.71</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="10"/>
-        <v>1403.58</v>
+        <f t="shared" si="12"/>
+        <v>1615.53</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>1663.6799999999998</v>
+        <v>1878.1799999999998</v>
       </c>
       <c r="H18" s="10">
-        <v>1663.68</v>
+        <v>1878.18</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,49 +984,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>12074</v>
+        <v>12177</v>
       </c>
       <c r="D19" s="3">
-        <f>C19-C21</f>
-        <v>102</v>
+        <f t="shared" ref="D19:D25" si="13">C19-C21</f>
+        <v>103</v>
       </c>
       <c r="E19" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="10"/>
-        <v>260.09999999999997</v>
+        <f t="shared" si="12"/>
+        <v>262.64999999999998</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>44047</v>
+        <v>44081</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>25959</v>
+        <v>26257</v>
       </c>
       <c r="D20" s="3">
         <f>C20-C22</f>
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="E20" s="7">
         <v>4.71</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
-        <v>1003.23</v>
-      </c>
-      <c r="G20" s="13">
+        <f t="shared" si="12"/>
+        <v>1403.58</v>
+      </c>
+      <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>1219.98</v>
-      </c>
-      <c r="H20" s="13">
-        <v>1162.92</v>
+        <v>1663.6799999999998</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1663.68</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,49 +1035,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>11972</v>
+        <v>12074</v>
       </c>
       <c r="D21" s="3">
         <f>C21-C23</f>
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E21" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" si="12"/>
-        <v>216.74999999999997</v>
+        <v>260.09999999999997</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>44014</v>
+        <v>44047</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>25746</v>
+        <v>25959</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="11"/>
-        <v>290</v>
+        <f>C22-C24</f>
+        <v>213</v>
       </c>
       <c r="E22" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="10"/>
-        <v>1302.1000000000001</v>
-      </c>
-      <c r="G22" s="10">
+        <f t="shared" ref="F22:F23" si="14">D22*E22</f>
+        <v>1003.23</v>
+      </c>
+      <c r="G22" s="13">
         <f>SUM(F22,F23)</f>
-        <v>1618.0000000000002</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1618</v>
+        <v>1219.98</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1162.92</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,49 +1086,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>11887</v>
+        <v>11972</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="11"/>
-        <v>130</v>
+        <f>C23-C25</f>
+        <v>85</v>
       </c>
       <c r="E23" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="10"/>
-        <v>315.90000000000003</v>
+        <f t="shared" si="14"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43980</v>
+        <v>44014</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>25456</v>
+        <v>25746</v>
       </c>
       <c r="D24" s="3">
-        <f>C24-C26</f>
-        <v>360</v>
+        <f t="shared" si="13"/>
+        <v>290</v>
       </c>
       <c r="E24" s="7">
         <v>4.49</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="10"/>
-        <v>1616.4</v>
+        <f t="shared" si="12"/>
+        <v>1302.1000000000001</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
-        <v>1939.5900000000001</v>
+        <v>1618.0000000000002</v>
       </c>
       <c r="H24" s="10">
-        <v>1939.59</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1137,37 +1137,50 @@
         <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>11757</v>
+        <v>11887</v>
       </c>
       <c r="D25" s="3">
-        <f>C25-C27</f>
-        <v>133</v>
+        <f t="shared" si="13"/>
+        <v>130</v>
       </c>
       <c r="E25" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="10"/>
-        <v>323.19</v>
+        <f t="shared" si="12"/>
+        <v>315.90000000000003</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43955</v>
+        <v>43980</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>25096</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+        <v>25456</v>
+      </c>
+      <c r="D26" s="3">
+        <f>C26-C28</f>
+        <v>360</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="12"/>
+        <v>1616.4</v>
+      </c>
+      <c r="G26" s="10">
+        <f>SUM(F26,F27)</f>
+        <v>1939.5900000000001</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1939.59</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -1175,35 +1188,73 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>11624</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+        <v>11757</v>
+      </c>
+      <c r="D27" s="3">
+        <f>C27-C29</f>
+        <v>133</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="12"/>
+        <v>323.19</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
+      <c r="A28" s="6">
+        <v>43955</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>25096</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>11624</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="10">
-        <f>SUM(G6:G27)</f>
-        <v>33583.72</v>
-      </c>
-      <c r="H28" s="10">
-        <f>SUM(H6:H27)</f>
-        <v>33561.279999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
+      <c r="G30" s="10">
+        <f>SUM(G2:G29)</f>
+        <v>44377.150000000009</v>
+      </c>
+      <c r="H30" s="10">
+        <f>SUM(H2:H29)</f>
+        <v>44354.709999999992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10">
-        <f>SUM(H28,-G28)</f>
-        <v>-22.440000000002328</v>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
+        <f>SUM(H30,-G30)</f>
+        <v>-22.44000000001688</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/327ee.xlsx
+++ b/sputnik/personal/ee/327ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -494,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -543,31 +543,31 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44431</v>
+        <v>44459</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>32706</v>
+        <v>33591</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>273</v>
+        <v>885</v>
       </c>
       <c r="E2" s="7">
         <v>4.96</v>
       </c>
       <c r="F2" s="9">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1354.08</v>
+        <v>4389.6000000000004</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>1667.6399999999999</v>
+        <v>4922.92</v>
       </c>
       <c r="H2" s="10">
-        <v>1667.64</v>
+        <v>4922.92</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -576,49 +576,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>14951</v>
+        <v>15150</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="E3" s="8">
         <v>2.68</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="1"/>
-        <v>313.56</v>
+        <v>533.32000000000005</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44389</v>
+        <v>44431</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>32433</v>
+        <v>32706</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>469</v>
+        <v>273</v>
       </c>
       <c r="E4" s="7">
         <v>4.96</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>2326.2399999999998</v>
+        <v>1354.08</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>2822.04</v>
+        <v>1667.6399999999999</v>
       </c>
       <c r="H4" s="10">
-        <v>2822.04</v>
+        <v>1667.64</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,49 +627,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>14834</v>
+        <v>14951</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="E5" s="8">
         <v>2.68</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="3"/>
-        <v>495.8</v>
+        <v>313.56</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44335</v>
+        <v>44389</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>31964</v>
+        <v>32433</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="4">C6-C8</f>
-        <v>1085</v>
+        <v>469</v>
       </c>
       <c r="E6" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>5110.3500000000004</v>
+        <v>2326.2399999999998</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>6303.75</v>
+        <v>2822.04</v>
       </c>
       <c r="H6" s="10">
-        <v>6303.75</v>
+        <v>2822.04</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,49 +678,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>14649</v>
+        <v>14834</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>468</v>
+        <v>185</v>
       </c>
       <c r="E7" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="5"/>
-        <v>1193.3999999999999</v>
+        <v>495.8</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44250</v>
+        <v>44335</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>30879</v>
+        <v>31964</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D9" si="6">C8-C10</f>
-        <v>1616</v>
+        <v>1085</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>7611.36</v>
+        <v>5110.3500000000004</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>9600.3599999999988</v>
+        <v>6303.75</v>
       </c>
       <c r="H8" s="10">
-        <v>9616.52</v>
+        <v>6303.75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -729,49 +729,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>14181</v>
+        <v>14649</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="6"/>
-        <v>780</v>
+        <v>468</v>
       </c>
       <c r="E9" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="7"/>
-        <v>1988.9999999999998</v>
+        <v>1193.3999999999999</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44235</v>
+        <v>44250</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>29263</v>
+        <v>30879</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D18" si="8">C10-C12</f>
-        <v>832</v>
+        <f t="shared" ref="D10:D11" si="8">C10-C12</f>
+        <v>1616</v>
       </c>
       <c r="E10" s="7">
         <v>4.71</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" ref="F10:F11" si="9">D10*E10</f>
-        <v>3918.72</v>
+        <v>7611.36</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>4994.82</v>
+        <v>9600.3599999999988</v>
       </c>
       <c r="H10" s="10">
-        <v>5003.1400000000003</v>
+        <v>9616.52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -780,49 +780,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>13401</v>
+        <v>14181</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="8"/>
-        <v>422</v>
+        <v>780</v>
       </c>
       <c r="E11" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="9"/>
-        <v>1076.0999999999999</v>
+        <v>1988.9999999999998</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44224</v>
+        <v>44235</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>28431</v>
+        <v>29263</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="8"/>
-        <v>1014</v>
+        <f t="shared" ref="D12:D20" si="10">C12-C14</f>
+        <v>832</v>
       </c>
       <c r="E12" s="7">
         <v>4.71</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>4775.9399999999996</v>
+        <f t="shared" ref="F12:F13" si="11">D12*E12</f>
+        <v>3918.72</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>5992.2899999999991</v>
+        <v>4994.82</v>
       </c>
       <c r="H12" s="10">
-        <v>6002.43</v>
+        <v>5003.1400000000003</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,49 +831,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>12979</v>
+        <v>13401</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="8"/>
-        <v>477</v>
+        <f t="shared" si="10"/>
+        <v>422</v>
       </c>
       <c r="E13" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="10"/>
-        <v>1216.3499999999999</v>
+        <f t="shared" si="11"/>
+        <v>1076.0999999999999</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44174</v>
+        <v>44224</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>27417</v>
+        <v>28431</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="8"/>
-        <v>512</v>
+        <f t="shared" si="10"/>
+        <v>1014</v>
       </c>
       <c r="E14" s="7">
         <v>4.71</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
-        <v>2411.52</v>
+        <f t="shared" ref="F14:F15" si="12">D14*E14</f>
+        <v>4775.9399999999996</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>2939.37</v>
+        <v>5992.2899999999991</v>
       </c>
       <c r="H14" s="10">
-        <v>2939.37</v>
+        <v>6002.43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,49 +882,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>12502</v>
+        <v>12979</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="8"/>
-        <v>207</v>
+        <f t="shared" si="10"/>
+        <v>477</v>
       </c>
       <c r="E15" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="11"/>
-        <v>527.84999999999991</v>
+        <f t="shared" si="12"/>
+        <v>1216.3499999999999</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>44144</v>
+      <c r="A16" s="12">
+        <v>44174</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>26905</v>
+        <v>27417</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="8"/>
-        <v>305</v>
+        <f t="shared" si="10"/>
+        <v>512</v>
       </c>
       <c r="E16" s="7">
         <v>4.71</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" ref="F16:F27" si="12">D16*E16</f>
-        <v>1436.55</v>
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>2411.52</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>1737.4499999999998</v>
+        <v>2939.37</v>
       </c>
       <c r="H16" s="10">
-        <v>1737.45</v>
+        <v>2939.37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,49 +933,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>12295</v>
+        <v>12502</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="8"/>
-        <v>118</v>
+        <f t="shared" si="10"/>
+        <v>207</v>
       </c>
       <c r="E17" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="12"/>
-        <v>300.89999999999998</v>
+        <f t="shared" si="13"/>
+        <v>527.84999999999991</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>26600</v>
+        <v>26905</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="8"/>
-        <v>343</v>
+        <f t="shared" si="10"/>
+        <v>305</v>
       </c>
       <c r="E18" s="7">
         <v>4.71</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="12"/>
-        <v>1615.53</v>
+        <f t="shared" ref="F18:F29" si="14">D18*E18</f>
+        <v>1436.55</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>1878.1799999999998</v>
+        <v>1737.4499999999998</v>
       </c>
       <c r="H18" s="10">
-        <v>1878.18</v>
+        <v>1737.45</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,49 +984,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>12177</v>
+        <v>12295</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19:D25" si="13">C19-C21</f>
-        <v>103</v>
+        <f t="shared" si="10"/>
+        <v>118</v>
       </c>
       <c r="E19" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="12"/>
-        <v>262.64999999999998</v>
+        <f t="shared" si="14"/>
+        <v>300.89999999999998</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>44081</v>
+        <v>44113</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>26257</v>
+        <v>26600</v>
       </c>
       <c r="D20" s="3">
-        <f>C20-C22</f>
-        <v>298</v>
+        <f t="shared" si="10"/>
+        <v>343</v>
       </c>
       <c r="E20" s="7">
         <v>4.71</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="12"/>
-        <v>1403.58</v>
+        <f t="shared" si="14"/>
+        <v>1615.53</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>1663.6799999999998</v>
+        <v>1878.1799999999998</v>
       </c>
       <c r="H20" s="10">
-        <v>1663.68</v>
+        <v>1878.18</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,49 +1035,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>12074</v>
+        <v>12177</v>
       </c>
       <c r="D21" s="3">
-        <f>C21-C23</f>
-        <v>102</v>
+        <f t="shared" ref="D21:D27" si="15">C21-C23</f>
+        <v>103</v>
       </c>
       <c r="E21" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="12"/>
-        <v>260.09999999999997</v>
+        <f t="shared" si="14"/>
+        <v>262.64999999999998</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>44047</v>
+        <v>44081</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>25959</v>
+        <v>26257</v>
       </c>
       <c r="D22" s="3">
         <f>C22-C24</f>
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="E22" s="7">
         <v>4.71</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" ref="F22:F23" si="14">D22*E22</f>
-        <v>1003.23</v>
-      </c>
-      <c r="G22" s="13">
+        <f t="shared" si="14"/>
+        <v>1403.58</v>
+      </c>
+      <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>1219.98</v>
-      </c>
-      <c r="H22" s="13">
-        <v>1162.92</v>
+        <v>1663.6799999999998</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1663.68</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,49 +1086,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>11972</v>
+        <v>12074</v>
       </c>
       <c r="D23" s="3">
         <f>C23-C25</f>
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E23" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" si="14"/>
-        <v>216.74999999999997</v>
+        <v>260.09999999999997</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>44014</v>
+        <v>44047</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>25746</v>
+        <v>25959</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="13"/>
-        <v>290</v>
+        <f>C24-C26</f>
+        <v>213</v>
       </c>
       <c r="E24" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="12"/>
-        <v>1302.1000000000001</v>
-      </c>
-      <c r="G24" s="10">
+        <f t="shared" ref="F24:F25" si="16">D24*E24</f>
+        <v>1003.23</v>
+      </c>
+      <c r="G24" s="13">
         <f>SUM(F24,F25)</f>
-        <v>1618.0000000000002</v>
-      </c>
-      <c r="H24" s="10">
-        <v>1618</v>
+        <v>1219.98</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1162.92</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1137,49 +1137,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>11887</v>
+        <v>11972</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="13"/>
-        <v>130</v>
+        <f>C25-C27</f>
+        <v>85</v>
       </c>
       <c r="E25" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="12"/>
-        <v>315.90000000000003</v>
+        <f t="shared" si="16"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43980</v>
+        <v>44014</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>25456</v>
+        <v>25746</v>
       </c>
       <c r="D26" s="3">
-        <f>C26-C28</f>
-        <v>360</v>
+        <f t="shared" si="15"/>
+        <v>290</v>
       </c>
       <c r="E26" s="7">
         <v>4.49</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="12"/>
-        <v>1616.4</v>
+        <f t="shared" si="14"/>
+        <v>1302.1000000000001</v>
       </c>
       <c r="G26" s="10">
         <f>SUM(F26,F27)</f>
-        <v>1939.5900000000001</v>
+        <v>1618.0000000000002</v>
       </c>
       <c r="H26" s="10">
-        <v>1939.59</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1188,37 +1188,50 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>11757</v>
+        <v>11887</v>
       </c>
       <c r="D27" s="3">
-        <f>C27-C29</f>
-        <v>133</v>
+        <f t="shared" si="15"/>
+        <v>130</v>
       </c>
       <c r="E27" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="12"/>
-        <v>323.19</v>
+        <f t="shared" si="14"/>
+        <v>315.90000000000003</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43955</v>
+        <v>43980</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>25096</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+        <v>25456</v>
+      </c>
+      <c r="D28" s="3">
+        <f>C28-C30</f>
+        <v>360</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="14"/>
+        <v>1616.4</v>
+      </c>
+      <c r="G28" s="10">
+        <f>SUM(F28,F29)</f>
+        <v>1939.5900000000001</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1939.59</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -1226,35 +1239,73 @@
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>11624</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
+        <v>11757</v>
+      </c>
+      <c r="D29" s="3">
+        <f>C29-C31</f>
+        <v>133</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="14"/>
+        <v>323.19</v>
+      </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="2" t="s">
+      <c r="A30" s="6">
+        <v>43955</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>25096</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>11624</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="10">
-        <f>SUM(G2:G29)</f>
-        <v>44377.150000000009</v>
-      </c>
-      <c r="H30" s="10">
-        <f>SUM(H2:H29)</f>
-        <v>44354.709999999992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="2" t="s">
+      <c r="G32" s="10">
+        <f>SUM(G2:G31)</f>
+        <v>49300.070000000007</v>
+      </c>
+      <c r="H32" s="10">
+        <f>SUM(H2:H31)</f>
+        <v>49277.63</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10">
-        <f>SUM(H30,-G30)</f>
-        <v>-22.44000000001688</v>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10">
+        <f>SUM(H32,-G32)</f>
+        <v>-22.440000000009604</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/327ee.xlsx
+++ b/sputnik/personal/ee/327ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -187,6 +187,9 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -543,31 +546,31 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44459</v>
+        <v>44539</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>33591</v>
+      <c r="C2" s="14">
+        <v>34636</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>885</v>
+        <v>516</v>
       </c>
       <c r="E2" s="7">
         <v>4.96</v>
       </c>
       <c r="F2" s="9">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>4389.6000000000004</v>
+        <v>2559.36</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>4922.92</v>
+        <v>3189.1600000000003</v>
       </c>
       <c r="H2" s="10">
-        <v>4922.92</v>
+        <v>3189.16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -575,50 +578,50 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>15150</v>
+      <c r="C3" s="14">
+        <v>15536</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="E3" s="8">
         <v>2.68</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="1"/>
-        <v>533.32000000000005</v>
+        <v>629.80000000000007</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44431</v>
+        <v>44509</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>32706</v>
+        <v>34120</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>273</v>
+        <v>529</v>
       </c>
       <c r="E4" s="7">
         <v>4.96</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1354.08</v>
+        <v>2623.84</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>1667.6399999999999</v>
+        <v>3028.52</v>
       </c>
       <c r="H4" s="10">
-        <v>1667.64</v>
+        <v>3028.52</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,49 +630,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>14951</v>
+        <v>15301</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="E5" s="8">
         <v>2.68</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="3"/>
-        <v>313.56</v>
+        <v>404.68</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44389</v>
+        <v>44459</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>32433</v>
+        <v>33591</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="4">C6-C8</f>
-        <v>469</v>
+        <v>885</v>
       </c>
       <c r="E6" s="7">
         <v>4.96</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>2326.2399999999998</v>
+        <v>4389.6000000000004</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>2822.04</v>
+        <v>4922.92</v>
       </c>
       <c r="H6" s="10">
-        <v>2822.04</v>
+        <v>4922.92</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,49 +681,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>14834</v>
+        <v>15150</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E7" s="8">
         <v>2.68</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="5"/>
-        <v>495.8</v>
+        <v>533.32000000000005</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44335</v>
+        <v>44431</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>31964</v>
+        <v>32706</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D9" si="6">C8-C10</f>
-        <v>1085</v>
+        <v>273</v>
       </c>
       <c r="E8" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>5110.3500000000004</v>
+        <v>1354.08</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>6303.75</v>
+        <v>1667.6399999999999</v>
       </c>
       <c r="H8" s="10">
-        <v>6303.75</v>
+        <v>1667.64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -729,49 +732,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>14649</v>
+        <v>14951</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="6"/>
-        <v>468</v>
+        <v>117</v>
       </c>
       <c r="E9" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="7"/>
-        <v>1193.3999999999999</v>
+        <v>313.56</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44250</v>
+        <v>44389</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>30879</v>
+        <v>32433</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ref="D10:D11" si="8">C10-C12</f>
-        <v>1616</v>
+        <v>469</v>
       </c>
       <c r="E10" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" ref="F10:F11" si="9">D10*E10</f>
-        <v>7611.36</v>
+        <v>2326.2399999999998</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>9600.3599999999988</v>
+        <v>2822.04</v>
       </c>
       <c r="H10" s="10">
-        <v>9616.52</v>
+        <v>2822.04</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -780,49 +783,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>14181</v>
+        <v>14834</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="8"/>
-        <v>780</v>
+        <v>185</v>
       </c>
       <c r="E11" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="9"/>
-        <v>1988.9999999999998</v>
+        <v>495.8</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44235</v>
+        <v>44335</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>29263</v>
+        <v>31964</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D20" si="10">C12-C14</f>
-        <v>832</v>
+        <f t="shared" ref="D12:D13" si="10">C12-C14</f>
+        <v>1085</v>
       </c>
       <c r="E12" s="7">
         <v>4.71</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" ref="F12:F13" si="11">D12*E12</f>
-        <v>3918.72</v>
+        <v>5110.3500000000004</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>4994.82</v>
+        <v>6303.75</v>
       </c>
       <c r="H12" s="10">
-        <v>5003.1400000000003</v>
+        <v>6303.75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,49 +834,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>13401</v>
+        <v>14649</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="10"/>
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="E13" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="11"/>
-        <v>1076.0999999999999</v>
+        <v>1193.3999999999999</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44224</v>
+        <v>44250</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>28431</v>
+        <v>30879</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="10"/>
-        <v>1014</v>
+        <f t="shared" ref="D14:D15" si="12">C14-C16</f>
+        <v>1616</v>
       </c>
       <c r="E14" s="7">
         <v>4.71</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" ref="F14:F15" si="12">D14*E14</f>
-        <v>4775.9399999999996</v>
+        <f t="shared" ref="F14:F15" si="13">D14*E14</f>
+        <v>7611.36</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>5992.2899999999991</v>
+        <v>9600.3599999999988</v>
       </c>
       <c r="H14" s="10">
-        <v>6002.43</v>
+        <v>9616.52</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,49 +885,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>12979</v>
+        <v>14181</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="10"/>
-        <v>477</v>
+        <f t="shared" si="12"/>
+        <v>780</v>
       </c>
       <c r="E15" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="12"/>
-        <v>1216.3499999999999</v>
+        <f t="shared" si="13"/>
+        <v>1988.9999999999998</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>44174</v>
+        <v>44235</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>27417</v>
+        <v>29263</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="10"/>
-        <v>512</v>
+        <f t="shared" ref="D16:D24" si="14">C16-C18</f>
+        <v>832</v>
       </c>
       <c r="E16" s="7">
         <v>4.71</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
-        <v>2411.52</v>
+        <f t="shared" ref="F16:F17" si="15">D16*E16</f>
+        <v>3918.72</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>2939.37</v>
+        <v>4994.82</v>
       </c>
       <c r="H16" s="10">
-        <v>2939.37</v>
+        <v>5003.1400000000003</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,49 +936,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>12502</v>
+        <v>13401</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="10"/>
-        <v>207</v>
+        <f t="shared" si="14"/>
+        <v>422</v>
       </c>
       <c r="E17" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="13"/>
-        <v>527.84999999999991</v>
+        <f t="shared" si="15"/>
+        <v>1076.0999999999999</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>44144</v>
+      <c r="A18" s="12">
+        <v>44224</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>26905</v>
+        <v>28431</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="10"/>
-        <v>305</v>
+        <f t="shared" si="14"/>
+        <v>1014</v>
       </c>
       <c r="E18" s="7">
         <v>4.71</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" ref="F18:F29" si="14">D18*E18</f>
-        <v>1436.55</v>
+        <f t="shared" ref="F18:F19" si="16">D18*E18</f>
+        <v>4775.9399999999996</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>1737.4499999999998</v>
+        <v>5992.2899999999991</v>
       </c>
       <c r="H18" s="10">
-        <v>1737.45</v>
+        <v>6002.43</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,49 +987,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>12295</v>
+        <v>12979</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="10"/>
-        <v>118</v>
+        <f t="shared" si="14"/>
+        <v>477</v>
       </c>
       <c r="E19" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="14"/>
-        <v>300.89999999999998</v>
+        <f t="shared" si="16"/>
+        <v>1216.3499999999999</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>44113</v>
+      <c r="A20" s="12">
+        <v>44174</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>26600</v>
+        <v>27417</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="10"/>
-        <v>343</v>
+        <f t="shared" si="14"/>
+        <v>512</v>
       </c>
       <c r="E20" s="7">
         <v>4.71</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="14"/>
-        <v>1615.53</v>
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>2411.52</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>1878.1799999999998</v>
+        <v>2939.37</v>
       </c>
       <c r="H20" s="10">
-        <v>1878.18</v>
+        <v>2939.37</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,49 +1038,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>12177</v>
+        <v>12502</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" ref="D21:D27" si="15">C21-C23</f>
-        <v>103</v>
+        <f t="shared" si="14"/>
+        <v>207</v>
       </c>
       <c r="E21" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="14"/>
-        <v>262.64999999999998</v>
+        <f t="shared" si="17"/>
+        <v>527.84999999999991</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>44081</v>
+        <v>44144</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>26257</v>
+        <v>26905</v>
       </c>
       <c r="D22" s="3">
-        <f>C22-C24</f>
-        <v>298</v>
+        <f t="shared" si="14"/>
+        <v>305</v>
       </c>
       <c r="E22" s="7">
         <v>4.71</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="14"/>
-        <v>1403.58</v>
+        <f t="shared" ref="F22:F33" si="18">D22*E22</f>
+        <v>1436.55</v>
       </c>
       <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>1663.6799999999998</v>
+        <v>1737.4499999999998</v>
       </c>
       <c r="H22" s="10">
-        <v>1663.68</v>
+        <v>1737.45</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,49 +1089,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>12074</v>
+        <v>12295</v>
       </c>
       <c r="D23" s="3">
-        <f>C23-C25</f>
-        <v>102</v>
+        <f t="shared" si="14"/>
+        <v>118</v>
       </c>
       <c r="E23" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="14"/>
-        <v>260.09999999999997</v>
+        <f t="shared" si="18"/>
+        <v>300.89999999999998</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>44047</v>
+        <v>44113</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>25959</v>
+        <v>26600</v>
       </c>
       <c r="D24" s="3">
-        <f>C24-C26</f>
-        <v>213</v>
+        <f t="shared" si="14"/>
+        <v>343</v>
       </c>
       <c r="E24" s="7">
         <v>4.71</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" ref="F24:F25" si="16">D24*E24</f>
-        <v>1003.23</v>
-      </c>
-      <c r="G24" s="13">
+        <f t="shared" si="18"/>
+        <v>1615.53</v>
+      </c>
+      <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
-        <v>1219.98</v>
-      </c>
-      <c r="H24" s="13">
-        <v>1162.92</v>
+        <v>1878.1799999999998</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1878.18</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1137,49 +1140,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>11972</v>
+        <v>12177</v>
       </c>
       <c r="D25" s="3">
-        <f>C25-C27</f>
-        <v>85</v>
+        <f t="shared" ref="D25:D31" si="19">C25-C27</f>
+        <v>103</v>
       </c>
       <c r="E25" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="16"/>
-        <v>216.74999999999997</v>
+        <f t="shared" si="18"/>
+        <v>262.64999999999998</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>44014</v>
+        <v>44081</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>25746</v>
+        <v>26257</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="15"/>
-        <v>290</v>
+        <f>C26-C28</f>
+        <v>298</v>
       </c>
       <c r="E26" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="14"/>
-        <v>1302.1000000000001</v>
+        <f t="shared" si="18"/>
+        <v>1403.58</v>
       </c>
       <c r="G26" s="10">
         <f>SUM(F26,F27)</f>
-        <v>1618.0000000000002</v>
+        <v>1663.6799999999998</v>
       </c>
       <c r="H26" s="10">
-        <v>1618</v>
+        <v>1663.68</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1188,49 +1191,49 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>11887</v>
+        <v>12074</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="15"/>
-        <v>130</v>
+        <f>C27-C29</f>
+        <v>102</v>
       </c>
       <c r="E27" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="14"/>
-        <v>315.90000000000003</v>
+        <f t="shared" si="18"/>
+        <v>260.09999999999997</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43980</v>
+        <v>44047</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>25456</v>
+        <v>25959</v>
       </c>
       <c r="D28" s="3">
         <f>C28-C30</f>
-        <v>360</v>
+        <v>213</v>
       </c>
       <c r="E28" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="14"/>
-        <v>1616.4</v>
-      </c>
-      <c r="G28" s="10">
+        <f t="shared" ref="F28:F29" si="20">D28*E28</f>
+        <v>1003.23</v>
+      </c>
+      <c r="G28" s="13">
         <f>SUM(F28,F29)</f>
-        <v>1939.5900000000001</v>
-      </c>
-      <c r="H28" s="10">
-        <v>1939.59</v>
+        <v>1219.98</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1162.92</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1239,37 +1242,50 @@
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>11757</v>
+        <v>11972</v>
       </c>
       <c r="D29" s="3">
         <f>C29-C31</f>
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="E29" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="14"/>
-        <v>323.19</v>
+        <f t="shared" si="20"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43955</v>
+        <v>44014</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>25096</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+        <v>25746</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="19"/>
+        <v>290</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="18"/>
+        <v>1302.1000000000001</v>
+      </c>
+      <c r="G30" s="10">
+        <f>SUM(F30,F31)</f>
+        <v>1618.0000000000002</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1618</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -1277,34 +1293,123 @@
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>11624</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
+        <v>11887</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="19"/>
+        <v>130</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="18"/>
+        <v>315.90000000000003</v>
+      </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="2" t="s">
+      <c r="A32" s="6">
+        <v>43980</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>25456</v>
+      </c>
+      <c r="D32" s="3">
+        <f>C32-C34</f>
+        <v>360</v>
+      </c>
+      <c r="E32" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="18"/>
+        <v>1616.4</v>
+      </c>
+      <c r="G32" s="10">
+        <f>SUM(F32,F33)</f>
+        <v>1939.5900000000001</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1939.59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>11757</v>
+      </c>
+      <c r="D33" s="3">
+        <f>C33-C35</f>
+        <v>133</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="18"/>
+        <v>323.19</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>43955</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>25096</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>11624</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="10">
-        <f>SUM(G2:G31)</f>
+      <c r="G36" s="10">
+        <f>SUM(G6:G35)</f>
         <v>49300.070000000007</v>
       </c>
-      <c r="H32" s="10">
-        <f>SUM(H2:H31)</f>
+      <c r="H36" s="10">
+        <f>SUM(H6:H35)</f>
         <v>49277.63</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="2" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10">
-        <f>SUM(H32,-G32)</f>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10">
+        <f>SUM(H36,-G36)</f>
         <v>-22.440000000009604</v>
       </c>
     </row>
